--- a/medicine/Psychotrope/Kenelm_Digby/Kenelm_Digby.xlsx
+++ b/medicine/Psychotrope/Kenelm_Digby/Kenelm_Digby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kenelm Digby (11 juillet 1603 – 11 juin 1665) est un courtisan et diplomate anglais, philosophe, astrologue et écrivain. Il est connu comme un intellectuel catholique de premier plan et adepte de Thomas White mais également pour sa liaison amoureuse et son mariage avec Venetia Stanley qui s'est terminé de manière tragique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né à Gayhurst dans le Buckinghamshire. Il est le fils de Everard Digby. Son père, est exécuté pour sa participation à la "Conspiration des Poudres", l'attentat à l'explosif perpétré par des catholiques contre le roi anglais Jacques Ier en 1605.
 Célèbre par son esprit et sa science, il jouit de la faveur de Charles Ier d'Angleterre et s'attache à ce prince pendant la guerre civile. Emprisonné par ordre du Parlement, il obtient sa liberté, vient en France et est chargé par Charles Ier de plusieurs missions. Il se lie d’amitié avec Descartes et l'engage à chercher un moyen de prolonger indéfiniment la vie. Il se rallie à Cromwell et reste sans emploi à la Restauration.
@@ -548,10 +562,12 @@
           <t>Philosophie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il partage en physique les convictions de son temps et croit à l'alchimie. Expliquant tout par les causes occultes, la fermentation, les effluves, il pense guérir, avec la « Poudre de sympathie », préparation de vitriol pulvérisé et calciné censée agir, même à distance, sur les plaies et les blessures. Il écrit à Montpellier un Discours touchant la guérison des plaies par la poudre de sympathie (1658), très en vogue à la cour de Jacques Ier d'Angleterre, qui rappelle les curieuses expériences de Paracelse.
-Selon l'historien de l'écologie Donald Worster, il est à l'origine de la notion d'« économie de nature », reprise par le botaniste Linné et qui a eu une importance considérable pour le développement de l'écologie végétale. Le mot économie est alors utilisé pour désigner à la fois la gestion des affaires domestiques et les desseins de Dieu[1].
+Selon l'historien de l'écologie Donald Worster, il est à l'origine de la notion d'« économie de nature », reprise par le botaniste Linné et qui a eu une importance considérable pour le développement de l'écologie végétale. Le mot économie est alors utilisé pour désigner à la fois la gestion des affaires domestiques et les desseins de Dieu.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On a de lui :
 De la nature des corps, 1644 ;
@@ -619,7 +637,9 @@
           <t>Portraits de Sir Digby et son épouse par Antoine van Dyck</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1632-1633
 Portrait de famille de Sir Kenelm Digby et Lady Venetia Stanley avec leurs fils Kenelm et John, huile sur toile, 137,8 × 210,8 cm, Collection privée, Angleterre
